--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhard\Documents\GitHub\Interview-Preparation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prateek Bhardwaj\Documents\GitHub\Interview-Preparation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2FE47E-1EB7-4919-9C60-78B9C6C275A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA06B849-BC94-42D7-80AA-F0172D03D638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5B9C00BF-1F67-4250-A66A-1F4C5405717A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{5B9C00BF-1F67-4250-A66A-1F4C5405717A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>S.No</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Employee Free Time</t>
+  </si>
+  <si>
+    <t>K empty slots</t>
   </si>
 </sst>
 </file>
@@ -434,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA21D8F6-59D0-43A7-99C6-08E11082554C}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -512,6 +515,14 @@
         <v>8</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://www.lintcode.com/problem/4-keys-keyboard/" xr:uid="{458C1FFF-4C67-4498-8BAA-443312234E43}"/>
@@ -521,8 +532,9 @@
     <hyperlink ref="B6" r:id="rId5" xr:uid="{4CCA0E1E-1ADF-478B-ACA6-FA2A7D6C4B09}"/>
     <hyperlink ref="B7" r:id="rId6" xr:uid="{C50F208C-77BA-4987-8F90-E192A2A58477}"/>
     <hyperlink ref="B8" r:id="rId7" display="Anagram mapping" xr:uid="{9A4F0ABF-8F72-46EA-8DEE-F41304D39C29}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{B17D1591-81FC-4CC1-94F9-373DA4E1F2A9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prateek Bhardwaj\Documents\GitHub\Interview-Preparation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA06B849-BC94-42D7-80AA-F0172D03D638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DC90B3-DDA0-47D3-93B9-432695C5B339}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{5B9C00BF-1F67-4250-A66A-1F4C5405717A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>S.No</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>K empty slots</t>
+  </si>
+  <si>
+    <t>Range Addition</t>
+  </si>
+  <si>
+    <t>best meeting points</t>
+  </si>
+  <si>
+    <t>wiggle sort</t>
+  </si>
+  <si>
+    <t>Max Consecutive Ones II</t>
   </si>
 </sst>
 </file>
@@ -437,16 +449,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA21D8F6-59D0-43A7-99C6-08E11082554C}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.08984375" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.35">
@@ -521,6 +533,38 @@
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -533,8 +577,12 @@
     <hyperlink ref="B7" r:id="rId6" xr:uid="{C50F208C-77BA-4987-8F90-E192A2A58477}"/>
     <hyperlink ref="B8" r:id="rId7" display="Anagram mapping" xr:uid="{9A4F0ABF-8F72-46EA-8DEE-F41304D39C29}"/>
     <hyperlink ref="B9" r:id="rId8" xr:uid="{B17D1591-81FC-4CC1-94F9-373DA4E1F2A9}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{52769F80-EC2A-4B93-89CD-28B61F461DA7}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{D6C26EFB-6670-4496-A2BB-1C6CCCB335FA}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{18E0FA7A-086F-473D-8196-B9DEAB2FE657}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{7A6FB8F7-DF56-4765-9657-B43B5CE9BD7C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prateek Bhardwaj\Documents\GitHub\Interview-Preparation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhard\Documents\GitHub\Interview-Preparation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DC90B3-DDA0-47D3-93B9-432695C5B339}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1436C097-C25D-4199-84AD-4C44DD70D049}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{5B9C00BF-1F67-4250-A66A-1F4C5405717A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>S.No</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Max Consecutive Ones II</t>
+  </si>
+  <si>
+    <t>Number of Distinct Islands</t>
   </si>
 </sst>
 </file>
@@ -449,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA21D8F6-59D0-43A7-99C6-08E11082554C}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -565,6 +568,14 @@
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -581,8 +592,9 @@
     <hyperlink ref="B11" r:id="rId10" xr:uid="{D6C26EFB-6670-4496-A2BB-1C6CCCB335FA}"/>
     <hyperlink ref="B12" r:id="rId11" xr:uid="{18E0FA7A-086F-473D-8196-B9DEAB2FE657}"/>
     <hyperlink ref="B13" r:id="rId12" xr:uid="{7A6FB8F7-DF56-4765-9657-B43B5CE9BD7C}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{D35E8149-864D-47EE-A097-6DEC0B936EA5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhard\Documents\GitHub\Interview-Preparation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1436C097-C25D-4199-84AD-4C44DD70D049}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167CCD2E-99EA-4D23-89B4-A0A68E974EB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{5B9C00BF-1F67-4250-A66A-1F4C5405717A}"/>
   </bookViews>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>S.No</t>
   </si>
@@ -76,6 +70,9 @@
   </si>
   <si>
     <t>Number of Distinct Islands</t>
+  </si>
+  <si>
+    <t>Next Closest Time</t>
   </si>
 </sst>
 </file>
@@ -452,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA21D8F6-59D0-43A7-99C6-08E11082554C}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -576,6 +573,14 @@
       </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -593,8 +598,9 @@
     <hyperlink ref="B12" r:id="rId11" xr:uid="{18E0FA7A-086F-473D-8196-B9DEAB2FE657}"/>
     <hyperlink ref="B13" r:id="rId12" xr:uid="{7A6FB8F7-DF56-4765-9657-B43B5CE9BD7C}"/>
     <hyperlink ref="B14" r:id="rId13" xr:uid="{D35E8149-864D-47EE-A097-6DEC0B936EA5}"/>
+    <hyperlink ref="B15" r:id="rId14" display="Number of Distinct Islands" xr:uid="{A04B0189-4D29-40DE-AB41-C4F90E6A9ACF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>